--- a/БП2.xlsx
+++ b/БП2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgeniy.bogdanov\Documents\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE6A179-54E0-4015-8A27-85D409FFD544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF79302-49D4-43B4-BED0-75031EB5BBE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-20" windowWidth="38640" windowHeight="15720" xr2:uid="{C1977873-FEB7-4657-8503-AB745EEB4ABD}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Операция</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>готовая продукция; отходы; нсп; отчет смены; уволенные люди</t>
+  </si>
+  <si>
+    <t>Разбраковка</t>
+  </si>
+  <si>
+    <t>нсп</t>
+  </si>
+  <si>
+    <t>ГП; отходы</t>
   </si>
 </sst>
 </file>
@@ -496,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D21637-8C87-44EC-A324-C9BEBA254622}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,6 +613,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{39D21637-8C87-44EC-A324-C9BEBA254622}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/БП2.xlsx
+++ b/БП2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgeniy.bogdanov\Documents\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF79302-49D4-43B4-BED0-75031EB5BBE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E9E221-1C6C-429D-9A63-1B0497F98DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-20" windowWidth="38640" windowHeight="15720" xr2:uid="{C1977873-FEB7-4657-8503-AB745EEB4ABD}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,9 +595,6 @@
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -608,9 +605,6 @@
       </c>
       <c r="C7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
